--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1659.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1659.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.058511456013838</v>
+        <v>3.270586252212524</v>
       </c>
       <c r="B1">
-        <v>3.268134773417131</v>
+        <v>2.560418844223022</v>
       </c>
       <c r="C1">
-        <v>2.766618996527598</v>
+        <v>2.200759649276733</v>
       </c>
       <c r="D1">
-        <v>2.247880876336625</v>
+        <v>2.334538459777832</v>
       </c>
       <c r="E1">
-        <v>1.401409610013594</v>
+        <v>2.784363508224487</v>
       </c>
     </row>
   </sheetData>
